--- a/src/test/resources/excel/template/single.xlsx
+++ b/src/test/resources/excel/template/single.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{477C8EC9-BE4C-4576-AAC4-9CB6EA23893C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF833F9-2DE5-4A43-8557-8A8BBF7B0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,7 +78,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="app.itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.app.itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -142,18 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.count}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品リスト</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -161,24 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh sb="13" eb="16">
-      <t>モウシコミショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -208,6 +191,37 @@
   </si>
   <si>
     <t>${item.code}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.count}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.title} 申込書</t>
+    <rPh sb="25" eb="28">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -432,12 +446,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="6" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="6" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -904,24 +918,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F9D9D-5F5D-44B4-9C24-6FD4BE352E36}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -931,14 +943,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${app.text}</v>
+        <v>${inputEntity.app.text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -947,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -963,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -971,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -982,49 +994,49 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="15" t="e">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="e">
         <f>D12*E12</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>SUM(D12)</f>
         <v>0</v>
       </c>
@@ -1032,13 +1044,13 @@
         <f>SUM(E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="16" t="e">
+      <c r="F13" s="15" t="e">
         <f>SUM(F12)</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yWxwB120i9Ev5ODrpyZbxE9thvwSycowBtYIFVKfPMwJsHBTlaTW61FL5x8ybgyNOiSBfNYTG0j+50nHOREdlw==" saltValue="wFoaWor0BCLi+bsb8UQCAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
